--- a/public/uploads/KPI VentilaciÃ³n Junio.xlsx
+++ b/public/uploads/KPI VentilaciÃ³n Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\plan matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AAC956-7895-45FD-86EF-CEDE1FCC2355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB09483-A1D6-451A-A551-ECD00378BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -218,12 +218,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,7 +285,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,31 +693,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>44704</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -684,7 +730,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -695,7 +741,7 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +752,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,7 +763,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>44705</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -730,7 +776,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,7 +787,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -752,7 +798,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -763,7 +809,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -774,7 +820,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>44706</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -787,7 +833,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,7 +844,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -808,7 +854,7 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -818,7 +864,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44707</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -830,7 +876,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,7 +886,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -850,7 +896,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,7 +906,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>44708</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -872,7 +918,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
@@ -882,7 +928,7 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -892,7 +938,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -902,7 +948,7 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>44711</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -914,7 +960,7 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -924,7 +970,7 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -934,7 +980,7 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -944,7 +990,7 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -954,7 +1000,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>44712</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -966,7 +1012,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -976,7 +1022,7 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -986,7 +1032,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -996,7 +1042,7 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>44713</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1008,7 +1054,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1064,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1074,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1084,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>44714</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1050,7 +1096,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1106,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1116,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>44715</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1082,7 +1128,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1138,7 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1148,7 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1158,7 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>44718</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1124,7 +1170,7 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1180,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1190,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1200,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1210,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>44719</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1176,7 +1222,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1232,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
@@ -1196,7 +1242,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1252,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>44720</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1218,7 +1264,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1274,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1284,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1294,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>44721</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1260,7 +1306,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1316,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="2" t="s">
         <v>19</v>
       </c>
@@ -1280,7 +1326,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="10">
         <v>44722</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1292,7 +1338,7 @@
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -1302,9 +1348,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>44054</v>
-      </c>
+      <c r="A62" s="11"/>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1358,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1368,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1378,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="2" t="s">
         <v>26</v>
       </c>
@@ -1344,7 +1388,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>44725</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1356,7 +1400,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1410,7 @@
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1420,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1430,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1440,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>44726</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1408,7 +1452,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
@@ -1418,7 +1462,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="2" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1472,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1482,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="2" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +1492,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="7">
         <v>44727</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -1460,7 +1504,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1514,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1524,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>44728</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1492,7 +1536,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1546,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1556,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1566,7 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>44729</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1534,7 +1578,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1588,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1598,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1608,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1618,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="7">
         <v>44732</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -1586,7 +1630,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="2" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1640,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="2" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1650,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
